--- a/pred_ohlcv/54_21/2019-10-07 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-07 XRP ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-264190.8251</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-264190.8251</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>527186.60805849</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>529686.60805849</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>529516.78035849</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>741388.17405849</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>726561.72099967</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>726561.72099967</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>731671.11639967</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-188980.34094133</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-185124.75634133</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-195993.17734133</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-195993.17734133</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-195775.9196413301</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-164348.2108413301</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-164348.2108413301</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-164348.2108413301</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-164015.6475413301</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-303097.67374133</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-300949.9747571201</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-300932.07475712</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-308855.1462571201</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-308855.1462571201</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-222726.7441571201</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-221873.4326817201</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-221873.4326817201</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-221934.6526817201</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-274257.5774817201</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-291731.7026448801</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-255951.3369448801</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-267644.7241448801</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-267644.7241448801</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-267644.7241448801</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-254445.0957448801</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-257794.6928448802</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-266746.1953448802</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-258286.9362448802</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-258286.9362448802</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-258286.9362448802</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-258286.9362448802</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-258286.9362448802</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-261238.1103448802</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-375791.3365416102</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-263521.1432416102</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-263521.1432416102</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-263521.1432416102</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-345606.7818416102</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-345606.7818416102</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-345606.7818416102</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-345368.6409416102</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-404194.7379399702</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-383083.8514399702</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-383083.8514399702</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-344529.3543055702</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-371786.8466055702</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-857219.9625055699</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-857219.9625055699</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-856938.4382055699</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-749387.6096160898</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-728976.2510160899</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-492413.4870204899</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-492413.4870204899</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-778363.2346204899</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-778363.2346204899</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-698218.3544204899</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-816584.7847729399</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-781737.8006873198</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-815719.6083873198</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-810293.0093873198</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-860076.6060873198</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-753540.0181824297</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-749832.4105824297</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-754651.8318824298</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-693535.0761824298</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-701130.2565824297</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-701130.2565824297</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-701130.2565824297</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-701301.6200824297</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-701301.6200824297</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-555233.5203824297</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-555233.5203824297</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-576013.1203824297</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-429628.6225824297</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-429628.6225824297</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-429628.6225824297</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-429628.6225824297</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-429628.6225824297</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-428541.4140203397</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-428541.4140203397</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-500762.3250203397</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-515272.0603203397</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-495532.0335203396</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-498718.4022203396</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-498718.4022203396</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-498718.4022203396</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-498718.4022203396</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-564422.6715203396</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-560423.2137203396</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-560423.2137203396</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-560423.2137203396</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-573017.5548249095</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-573017.5548249095</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-518622.8221249096</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-529531.8134249096</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-529531.8134249096</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-529753.0177249096</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-529753.0177249096</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-529753.0177249096</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-529753.0177249096</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-351177.8372249096</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-351177.8372249096</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-455235.6745249095</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-455235.6745249095</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-461307.2590249096</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>7646368.01140419</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>7022414.14172919</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>6697126.40402919</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>8304929.77595421</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>8304929.77595421</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>8543671.4444008</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>8261311.041307311</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>8261311.041307311</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>8674821.27739615</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>8584440.148596151</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>8584440.148596151</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>8584440.148596151</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>8161882.126596151</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>8161882.126596151</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>13906206.9758318</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>13786077.05980892</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>13786077.05980892</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>13786077.05980892</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>13326509.99960892</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>13326509.99960892</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>13369768.29650892</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>13444085.95160891</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>12883895.72580891</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>12883895.72580891</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>13003690.33150891</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>12897013.12410891</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>13037355.29250892</v>
       </c>
       <c r="H1089">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>13037355.29250892</v>
       </c>
       <c r="H1090">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>13067564.14030891</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>13067564.14030891</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>12512687.95674266</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>12512687.95674266</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>12512687.95674266</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>12489413.20694266</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>12508394.53475888</v>
       </c>
       <c r="H1101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>12832076.77025197</v>
       </c>
       <c r="H1102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>12832076.77025197</v>
       </c>
       <c r="H1103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>12832076.77025197</v>
       </c>
       <c r="H1104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>12366546.63156643</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>12366546.63156643</v>
       </c>
       <c r="H1106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>12366546.63156643</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>12233720.22006643</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>12233720.22006643</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>13542722.76414427</v>
       </c>
       <c r="H1154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>13542722.76414427</v>
       </c>
       <c r="H1155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>13542722.76414427</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>13509273.75074427</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>13509273.75074427</v>
       </c>
       <c r="H1158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>13509273.75074427</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>13044123.84684368</v>
       </c>
       <c r="H1160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>13044123.84684368</v>
       </c>
       <c r="H1161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>13171532.84194309</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>13171532.84194309</v>
       </c>
       <c r="H1163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>13171532.84194309</v>
       </c>
       <c r="H1164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>13152963.25414309</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>13189596.62094309</v>
       </c>
       <c r="H1166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>13094956.58314309</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>13094956.58314309</v>
       </c>
       <c r="H1168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>13094973.51364309</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-07 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-07 XRP ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-248574.4534</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-185124.75634133</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-195993.17734133</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-195993.17734133</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-195775.9196413301</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-164348.2108413301</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-164348.2108413301</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-164348.2108413301</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-164015.6475413301</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-303097.67374133</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-300949.9747571201</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-300948.4747571201</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-300932.07475712</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-301855.1462571201</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-222726.7441571201</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-222726.7441571201</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-223626.7441571201</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-221873.4326817201</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-221934.6526817201</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-371786.8466055702</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-371786.8466055702</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-413805.2432055702</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-815719.6083873198</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-810293.0093873198</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-860076.6060873198</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-573017.5548249095</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-529531.8134249096</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-529753.0177249096</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-529753.0177249096</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-529753.0177249096</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-351177.8372249096</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>7646368.01140419</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>7022414.14172919</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>6697126.40402919</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>8304929.77595421</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>8304929.77595421</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>8543671.4444008</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>8261311.041307311</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>8261311.041307311</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>8674821.27739615</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>8584440.148596151</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>8584440.148596151</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>8584440.148596151</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>8161882.126596151</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>8161882.126596151</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>12943783.1269603</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>13906206.9758318</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>13786077.05980892</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>13786077.05980892</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>13786077.05980892</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>13326509.99960892</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>13326509.99960892</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>13369768.29650892</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>13444085.95160891</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>12883895.72580891</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>12883895.72580891</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>13003690.33150891</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>12897013.12410891</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>13037355.29250892</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>13037355.29250892</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>13067564.14030891</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>13067564.14030891</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>12512687.95674266</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>12512687.95674266</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>12512687.95674266</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>12489413.20694266</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>12508394.53475888</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>12832076.77025197</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>12832076.77025197</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>12832076.77025197</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>12366546.63156643</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>12366546.63156643</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>12366546.63156643</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>12233720.22006643</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>12233720.22006643</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>12162493.75666643</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>12162493.75666643</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>12190825.89226643</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>12190825.89226643</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>12289539.48606643</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>12232056.96517487</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>12232056.96517487</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>12232056.96517487</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>12232056.96517487</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>12107409.47537487</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>12161477.46503045</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>12161477.46503045</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>12161477.46503045</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>12708745.06838904</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>12708745.06838904</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>12690974.22903888</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>12785073.42065326</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>12775671.77825326</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>12775671.77825326</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>12721542.29535327</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>12721542.29535327</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>12721542.29535327</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>12733891.50165327</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>12733891.50165327</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>13039915.23055327</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>13920186.78764427</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>13542722.76414427</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>13542722.76414427</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>13542722.76414427</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>13509273.75074427</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>13509273.75074427</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>13509273.75074427</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>13044123.84684368</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>13044123.84684368</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>13171532.84194309</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>13171532.84194309</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>13152963.25414309</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>13189596.62094309</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>13094956.58314309</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>13094956.58314309</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>13094973.51364309</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>13044919.15757059</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>12759493.40707059</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>12759493.40707059</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>11890132.26617059</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>12378153.45544029</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
